--- a/xlsx/馬其頓共和國_intext.xlsx
+++ b/xlsx/馬其頓共和國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
   <si>
     <t>馬其頓共和國</t>
   </si>
@@ -29,7 +29,7 @@
     <t>馬其頓 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬其頓共和國</t>
+    <t>体育运动_体育运动_南非_馬其頓共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E6%97%97</t>
@@ -944,10 +944,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1058,10 +1082,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1070,6 +1094,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1106,12 +1136,6 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
@@ -1172,18 +1196,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1208,10 +1232,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1262,16 +1286,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1280,10 +1310,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2496,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4029,7 +4059,7 @@
         <v>98</v>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -7132,7 +7162,7 @@
         <v>298</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7161,7 +7191,7 @@
         <v>300</v>
       </c>
       <c r="G161" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7219,7 +7249,7 @@
         <v>98</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7335,7 +7365,7 @@
         <v>310</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7393,7 +7423,7 @@
         <v>314</v>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7422,7 +7452,7 @@
         <v>316</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7451,7 +7481,7 @@
         <v>318</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7509,7 +7539,7 @@
         <v>322</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7567,7 +7597,7 @@
         <v>326</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7625,7 +7655,7 @@
         <v>330</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7654,7 +7684,7 @@
         <v>332</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -7683,7 +7713,7 @@
         <v>334</v>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7712,7 +7742,7 @@
         <v>336</v>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7741,7 +7771,7 @@
         <v>338</v>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7770,7 +7800,7 @@
         <v>340</v>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7799,7 +7829,7 @@
         <v>342</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7828,7 +7858,7 @@
         <v>344</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7857,7 +7887,7 @@
         <v>346</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7886,7 +7916,7 @@
         <v>348</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7973,7 +8003,7 @@
         <v>354</v>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8002,7 +8032,7 @@
         <v>356</v>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8060,7 +8090,7 @@
         <v>360</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8089,7 +8119,7 @@
         <v>362</v>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8118,7 +8148,7 @@
         <v>364</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8147,7 +8177,7 @@
         <v>366</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8176,7 +8206,7 @@
         <v>368</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8205,7 +8235,7 @@
         <v>370</v>
       </c>
       <c r="G197" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8234,7 +8264,7 @@
         <v>372</v>
       </c>
       <c r="G198" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8257,13 +8287,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F199" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8292,7 +8322,7 @@
         <v>374</v>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8350,7 +8380,7 @@
         <v>378</v>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8379,7 +8409,7 @@
         <v>380</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8402,13 +8432,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>107</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>108</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8431,13 +8461,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8460,10 +8490,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8489,13 +8519,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8518,10 +8548,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8547,13 +8577,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8576,10 +8606,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8605,13 +8635,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8634,10 +8664,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8663,10 +8693,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8692,13 +8722,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8721,13 +8751,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8750,13 +8780,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8779,10 +8809,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8808,10 +8838,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8837,10 +8867,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8866,10 +8896,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8895,13 +8925,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8924,10 +8954,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8953,10 +8983,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8982,10 +9012,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9011,10 +9041,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9040,10 +9070,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9069,13 +9099,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9098,10 +9128,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9127,10 +9157,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9156,10 +9186,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9185,10 +9215,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9214,13 +9244,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9243,10 +9273,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9272,13 +9302,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9301,10 +9331,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9330,10 +9360,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9359,10 +9389,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9388,10 +9418,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>307</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>308</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>5</v>
@@ -9423,7 +9453,7 @@
         <v>450</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9481,7 +9511,7 @@
         <v>454</v>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9562,13 +9592,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>307</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9591,13 +9621,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>371</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>372</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9626,7 +9656,7 @@
         <v>462</v>
       </c>
       <c r="G246" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9713,7 +9743,7 @@
         <v>468</v>
       </c>
       <c r="G249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9765,13 +9795,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>379</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9794,13 +9824,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9823,13 +9853,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9852,10 +9882,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9881,13 +9911,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9910,10 +9940,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9939,10 +9969,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9968,10 +9998,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9997,10 +10027,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10026,10 +10056,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10055,10 +10085,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10084,10 +10114,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10113,10 +10143,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10142,10 +10172,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10171,10 +10201,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10200,13 +10230,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10229,10 +10259,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F267" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10258,10 +10288,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F268" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10287,10 +10317,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F269" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10316,10 +10346,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10345,10 +10375,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10374,13 +10404,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10403,10 +10433,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10432,10 +10462,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10461,10 +10491,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10490,10 +10520,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10519,10 +10549,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10548,10 +10578,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10577,10 +10607,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10606,10 +10636,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10635,10 +10665,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10664,10 +10694,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10693,10 +10723,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10722,10 +10752,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10751,10 +10781,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10780,10 +10810,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10809,10 +10839,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10838,10 +10868,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10867,10 +10897,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10896,10 +10926,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10925,10 +10955,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10954,10 +10984,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F292" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10983,10 +11013,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11012,10 +11042,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F294" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11041,10 +11071,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F295" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11070,10 +11100,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F296" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11099,10 +11129,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11128,13 +11158,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G298" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11157,10 +11187,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F299" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11186,10 +11216,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F300" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11215,10 +11245,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F301" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11244,10 +11274,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F302" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11273,10 +11303,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F303" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11302,13 +11332,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F304" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11331,10 +11361,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F305" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11360,10 +11390,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11389,13 +11419,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11418,10 +11448,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11447,13 +11477,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11476,10 +11506,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F310" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11505,10 +11535,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F311" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11534,10 +11564,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F312" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11563,13 +11593,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F313" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11592,10 +11622,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F314" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11621,13 +11651,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F315" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -11650,10 +11680,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F316" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11679,10 +11709,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>117</v>
+        <v>601</v>
       </c>
       <c r="F317" t="s">
-        <v>118</v>
+        <v>602</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11708,10 +11738,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>117</v>
+        <v>603</v>
       </c>
       <c r="F318" t="s">
-        <v>118</v>
+        <v>604</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11737,10 +11767,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>117</v>
+        <v>605</v>
       </c>
       <c r="F319" t="s">
-        <v>118</v>
+        <v>606</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11766,10 +11796,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11795,13 +11825,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F321" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G321" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -11824,10 +11854,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F322" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11853,13 +11883,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="F323" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="G323" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -11882,13 +11912,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>118</v>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -11911,13 +11941,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>117</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>118</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -11946,7 +11976,7 @@
         <v>614</v>
       </c>
       <c r="G326" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -11975,7 +12005,7 @@
         <v>616</v>
       </c>
       <c r="G327" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12027,13 +12057,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c r="F329" t="s">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12062,7 +12092,7 @@
         <v>620</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12120,7 +12150,7 @@
         <v>624</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12143,13 +12173,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>461</v>
+        <v>625</v>
       </c>
       <c r="F333" t="s">
-        <v>462</v>
+        <v>626</v>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12172,10 +12202,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F334" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12201,13 +12231,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>627</v>
+        <v>373</v>
       </c>
       <c r="F335" t="s">
-        <v>628</v>
+        <v>374</v>
       </c>
       <c r="G335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12265,7 +12295,7 @@
         <v>632</v>
       </c>
       <c r="G337" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12294,7 +12324,7 @@
         <v>634</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12317,13 +12347,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>635</v>
+        <v>471</v>
       </c>
       <c r="F339" t="s">
-        <v>636</v>
+        <v>472</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12346,13 +12376,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F340" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12375,13 +12405,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F341" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12404,13 +12434,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F342" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G342" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12433,13 +12463,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F343" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12462,10 +12492,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F344" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12491,13 +12521,13 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F345" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -12520,13 +12550,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F346" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -12549,10 +12579,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F347" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12578,13 +12608,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F348" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -12607,13 +12637,13 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F349" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -12636,13 +12666,13 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F350" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G350" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -12665,13 +12695,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F351" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -12694,10 +12724,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="F352" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12758,7 +12788,7 @@
         <v>664</v>
       </c>
       <c r="G354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -12816,7 +12846,7 @@
         <v>668</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -12868,10 +12898,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="F358" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12897,10 +12927,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F359" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12926,13 +12956,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F360" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -12955,10 +12985,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F361" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12984,10 +13014,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F362" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13013,10 +13043,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F363" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13042,10 +13072,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F364" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13071,10 +13101,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F365" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13100,10 +13130,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F366" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13129,10 +13159,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F367" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13158,10 +13188,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F368" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13187,10 +13217,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F369" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13216,13 +13246,13 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F370" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G370" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13245,10 +13275,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F371" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13274,13 +13304,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F372" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13303,10 +13333,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F373" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13332,10 +13362,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F374" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13361,10 +13391,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F375" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13390,13 +13420,13 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F376" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -13419,18 +13449,250 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>707</v>
+      </c>
+      <c r="F377" t="s">
+        <v>708</v>
+      </c>
+      <c r="G377" t="n">
+        <v>1</v>
+      </c>
+      <c r="H377" t="s">
+        <v>4</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>377</v>
+      </c>
+      <c r="E378" t="s">
         <v>709</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F378" t="s">
         <v>710</v>
       </c>
-      <c r="G377" t="n">
-        <v>1</v>
-      </c>
-      <c r="H377" t="s">
-        <v>4</v>
-      </c>
-      <c r="I377" t="n">
+      <c r="G378" t="n">
+        <v>2</v>
+      </c>
+      <c r="H378" t="s">
+        <v>4</v>
+      </c>
+      <c r="I378" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>378</v>
+      </c>
+      <c r="E379" t="s">
+        <v>299</v>
+      </c>
+      <c r="F379" t="s">
+        <v>300</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1</v>
+      </c>
+      <c r="H379" t="s">
+        <v>4</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>379</v>
+      </c>
+      <c r="E380" t="s">
+        <v>105</v>
+      </c>
+      <c r="F380" t="s">
+        <v>106</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1</v>
+      </c>
+      <c r="H380" t="s">
+        <v>4</v>
+      </c>
+      <c r="I380" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>380</v>
+      </c>
+      <c r="E381" t="s">
+        <v>711</v>
+      </c>
+      <c r="F381" t="s">
+        <v>712</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1</v>
+      </c>
+      <c r="H381" t="s">
+        <v>4</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>381</v>
+      </c>
+      <c r="E382" t="s">
+        <v>713</v>
+      </c>
+      <c r="F382" t="s">
+        <v>714</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1</v>
+      </c>
+      <c r="H382" t="s">
+        <v>4</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>382</v>
+      </c>
+      <c r="E383" t="s">
+        <v>715</v>
+      </c>
+      <c r="F383" t="s">
+        <v>716</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1</v>
+      </c>
+      <c r="H383" t="s">
+        <v>4</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>383</v>
+      </c>
+      <c r="E384" t="s">
+        <v>717</v>
+      </c>
+      <c r="F384" t="s">
+        <v>718</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1</v>
+      </c>
+      <c r="H384" t="s">
+        <v>4</v>
+      </c>
+      <c r="I384" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>384</v>
+      </c>
+      <c r="E385" t="s">
+        <v>719</v>
+      </c>
+      <c r="F385" t="s">
+        <v>720</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1</v>
+      </c>
+      <c r="H385" t="s">
+        <v>4</v>
+      </c>
+      <c r="I385" t="n">
         <v>3</v>
       </c>
     </row>
